--- a/SEA_ethnicity.xlsx
+++ b/SEA_ethnicity.xlsx
@@ -438,13 +438,13 @@
         <v>1.101052287731445e-08</v>
       </c>
       <c r="H2">
-        <v>0.002228754982405357</v>
+        <v>0.00222985120792337</v>
       </c>
       <c r="I2">
-        <v>1.150403601172323e-06</v>
+        <v>1.151529624637223e-06</v>
       </c>
       <c r="J2">
-        <v>52.38410115403093</v>
+        <v>52.52498015284861</v>
       </c>
     </row>
     <row r="3">
@@ -476,13 +476,13 @@
         <v>2.259587695079114e-08</v>
       </c>
       <c r="H3">
-        <v>0.002075488062616035</v>
+        <v>0.00207603308428362</v>
       </c>
       <c r="I3">
-        <v>1.001568977255475e-06</v>
+        <v>1.002099066291513e-06</v>
       </c>
       <c r="J3">
-        <v>48.03883994126285</v>
+        <v>47.84816878293168</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         <v>3.411713690754761e-07</v>
       </c>
       <c r="H4">
-        <v>0.002212942091727509</v>
+        <v>0.002213728195387578</v>
       </c>
       <c r="I4">
-        <v>1.138170425663498e-06</v>
+        <v>1.138979357572459e-06</v>
       </c>
       <c r="J4">
-        <v>46.84269794874471</v>
+        <v>47.10100996920507</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +552,13 @@
         <v>6.579385825667272e-07</v>
       </c>
       <c r="H5">
-        <v>0.002134667291418823</v>
+        <v>0.002136379000397483</v>
       </c>
       <c r="I5">
-        <v>1.062288528957544e-06</v>
+        <v>1.06397384113961e-06</v>
       </c>
       <c r="J5">
-        <v>47.64232003770959</v>
+        <v>47.68288029449395</v>
       </c>
     </row>
     <row r="6">
@@ -590,13 +590,13 @@
         <v>3.023770584438315e-07</v>
       </c>
       <c r="H6">
-        <v>0.002256243167632677</v>
+        <v>0.002256379447118521</v>
       </c>
       <c r="I6">
-        <v>1.187291199639456e-06</v>
+        <v>1.187448182631014e-06</v>
       </c>
       <c r="J6">
-        <v>41.84081721364921</v>
+        <v>41.82038687241904</v>
       </c>
     </row>
     <row r="7">
@@ -628,13 +628,13 @@
         <v>1.630237551380332e-06</v>
       </c>
       <c r="H7">
-        <v>0.001848570224625171</v>
+        <v>0.001848682170984078</v>
       </c>
       <c r="I7">
-        <v>8.041662735426483e-07</v>
+        <v>8.042747775191128e-07</v>
       </c>
       <c r="J7">
-        <v>38.50499926839974</v>
+        <v>38.39657611081305</v>
       </c>
     </row>
     <row r="8">
@@ -666,13 +666,13 @@
         <v>1.069830989484549e-06</v>
       </c>
       <c r="H8">
-        <v>0.001974758415561324</v>
+        <v>0.00197387774085375</v>
       </c>
       <c r="I8">
-        <v>9.231143579537551e-07</v>
+        <v>9.223234463413529e-07</v>
       </c>
       <c r="J8">
-        <v>37.1417445482866</v>
+        <v>37.04620976116303</v>
       </c>
     </row>
     <row r="9">
@@ -704,13 +704,13 @@
         <v>1.50871880984334e-06</v>
       </c>
       <c r="H9">
-        <v>0.002213649816141048</v>
+        <v>0.002215909015401094</v>
       </c>
       <c r="I9">
-        <v>1.155156220151415e-06</v>
+        <v>1.157485487382605e-06</v>
       </c>
       <c r="J9">
-        <v>46.9518315018315</v>
+        <v>47.28516483516484</v>
       </c>
     </row>
     <row r="10">
@@ -742,13 +742,13 @@
         <v>3.044056631629575e-06</v>
       </c>
       <c r="H10">
-        <v>0.002239053953552157</v>
+        <v>0.00223924149185198</v>
       </c>
       <c r="I10">
-        <v>1.193502865601821e-06</v>
+        <v>1.193715447016056e-06</v>
       </c>
       <c r="J10">
-        <v>49.08823529411764</v>
+        <v>49.2075873827792</v>
       </c>
     </row>
     <row r="11">
@@ -780,13 +780,13 @@
         <v>9.809845155890355e-06</v>
       </c>
       <c r="H11">
-        <v>0.002195848676916898</v>
+        <v>0.002196246980685611</v>
       </c>
       <c r="I11">
-        <v>1.153983139684464e-06</v>
+        <v>1.154409853393078e-06</v>
       </c>
       <c r="J11">
-        <v>43.22711864406779</v>
+        <v>43.21638418079096</v>
       </c>
     </row>
     <row r="12">
@@ -821,10 +821,10 @@
         <v>0.002083464197815463</v>
       </c>
       <c r="I12">
-        <v>1.044395681542508e-06</v>
+        <v>1.04441113898974e-06</v>
       </c>
       <c r="J12">
-        <v>38.11043771043771</v>
+        <v>38.18989898989899</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.001137499463322212</v>
       </c>
       <c r="H13">
-        <v>0.001884117400274959</v>
+        <v>0.001881681656743094</v>
       </c>
       <c r="I13">
-        <v>8.59722794425147e-07</v>
+        <v>8.575657508682577e-07</v>
       </c>
       <c r="J13">
-        <v>34.34766214177979</v>
+        <v>33.16892911010558</v>
       </c>
     </row>
     <row r="14">
@@ -894,13 +894,13 @@
         <v>2.360062114454048e-05</v>
       </c>
       <c r="H14">
-        <v>0.00219940468917667</v>
+        <v>0.002199511867417943</v>
       </c>
       <c r="I14">
-        <v>1.167852037317408e-06</v>
+        <v>1.167980038135328e-06</v>
       </c>
       <c r="J14">
-        <v>46.51063829787234</v>
+        <v>46.61436170212766</v>
       </c>
     </row>
     <row r="15">
@@ -932,13 +932,13 @@
         <v>0.0001726433054828116</v>
       </c>
       <c r="H15">
-        <v>0.002006145677491273</v>
+        <v>0.002032423448031433</v>
       </c>
       <c r="I15">
-        <v>9.78173309862255e-07</v>
+        <v>1.003427045064895e-06</v>
       </c>
       <c r="J15">
-        <v>45.45858585858586</v>
+        <v>45.85656565656566</v>
       </c>
     </row>
     <row r="16">
@@ -970,13 +970,13 @@
         <v>1.349746247705432e-05</v>
       </c>
       <c r="H16">
-        <v>0.002410769347947333</v>
+        <v>0.002413798889502267</v>
       </c>
       <c r="I16">
-        <v>1.407160753412175e-06</v>
+        <v>1.410654348104822e-06</v>
       </c>
       <c r="J16">
-        <v>46.71660859465737</v>
+        <v>46.90011614401858</v>
       </c>
     </row>
     <row r="17">
@@ -1008,13 +1008,13 @@
         <v>2.382220352624889e-05</v>
       </c>
       <c r="H17">
-        <v>0.00151823015712106</v>
+        <v>0.001518138042683667</v>
       </c>
       <c r="I17">
-        <v>5.705510891452747e-07</v>
+        <v>5.70495189802018e-07</v>
       </c>
       <c r="J17">
-        <v>48.9780487804878</v>
+        <v>49.03292682926829</v>
       </c>
     </row>
     <row r="18">
@@ -1046,13 +1046,13 @@
         <v>5.895839190781316e-05</v>
       </c>
       <c r="H18">
-        <v>0.001845816359817239</v>
+        <v>0.001845930623551288</v>
       </c>
       <c r="I18">
-        <v>8.37228981731755e-07</v>
+        <v>8.373441443792315e-07</v>
       </c>
       <c r="J18">
-        <v>68.41835357624831</v>
+        <v>68.46153846153847</v>
       </c>
     </row>
     <row r="19">
@@ -1084,13 +1084,13 @@
         <v>0.0003433051071190741</v>
       </c>
       <c r="H19">
-        <v>0.001996313031166465</v>
+        <v>0.001996192408022587</v>
       </c>
       <c r="I19">
-        <v>9.773179815096566e-07</v>
+        <v>9.772174673220234e-07</v>
       </c>
       <c r="J19">
-        <v>39.18349928876245</v>
+        <v>39.20056899004268</v>
       </c>
     </row>
     <row r="20">
@@ -1125,10 +1125,10 @@
         <v>0.001738523396228948</v>
       </c>
       <c r="I20">
-        <v>7.470642127466704e-07</v>
+        <v>7.47077341367298e-07</v>
       </c>
       <c r="J20">
-        <v>31.86786786786787</v>
+        <v>31.76876876876877</v>
       </c>
     </row>
     <row r="21">
@@ -1160,13 +1160,13 @@
         <v>5.602026239527497e-05</v>
       </c>
       <c r="H21">
-        <v>0.002113409190648403</v>
+        <v>0.002130030683330176</v>
       </c>
       <c r="I21">
-        <v>1.094398762672111e-06</v>
+        <v>1.111344480097193e-06</v>
       </c>
       <c r="J21">
-        <v>43.26276276276276</v>
+        <v>43.07507507507508</v>
       </c>
     </row>
     <row r="22">
@@ -1198,13 +1198,13 @@
         <v>0.0002004086194758348</v>
       </c>
       <c r="H22">
-        <v>0.001959836445303845</v>
+        <v>0.001931274483848813</v>
       </c>
       <c r="I22">
-        <v>9.456497133425271e-07</v>
+        <v>9.188951159659176e-07</v>
       </c>
       <c r="J22">
-        <v>42.92380952380952</v>
+        <v>43.65396825396825</v>
       </c>
     </row>
     <row r="23">
@@ -1236,13 +1236,13 @@
         <v>0.0008732154651221864</v>
       </c>
       <c r="H23">
-        <v>0.001766386193507296</v>
+        <v>0.001766492943141278</v>
       </c>
       <c r="I23">
-        <v>7.71852117206329e-07</v>
+        <v>7.719565224865049e-07</v>
       </c>
       <c r="J23">
-        <v>40.3</v>
+        <v>40.39206349206349</v>
       </c>
     </row>
     <row r="24">
@@ -1274,13 +1274,13 @@
         <v>0.000892857142857143</v>
       </c>
       <c r="H24">
-        <v>0.002049721128986475</v>
+        <v>0.002026540380718376</v>
       </c>
       <c r="I24">
-        <v>1.032399300617755e-06</v>
+        <v>1.00967833900869e-06</v>
       </c>
       <c r="J24">
-        <v>38.56825396825397</v>
+        <v>38.26031746031746</v>
       </c>
     </row>
     <row r="25">
@@ -1312,13 +1312,13 @@
         <v>2.332361516034988e-05</v>
       </c>
       <c r="H25">
-        <v>0.002282174958958438</v>
+        <v>0.002282037021517583</v>
       </c>
       <c r="I25">
-        <v>1.276571096131661e-06</v>
+        <v>1.276436983143428e-06</v>
       </c>
       <c r="J25">
-        <v>45.77310924369748</v>
+        <v>45.54789915966386</v>
       </c>
     </row>
     <row r="26">
@@ -1350,13 +1350,13 @@
         <v>0.0001911965252573332</v>
       </c>
       <c r="H26">
-        <v>0.002232506022518917</v>
+        <v>0.002232371209353306</v>
       </c>
       <c r="I26">
-        <v>1.222634989792844e-06</v>
+        <v>1.222507088248841e-06</v>
       </c>
       <c r="J26">
-        <v>40.41176470588236</v>
+        <v>40.61512605042017</v>
       </c>
     </row>
     <row r="27">
@@ -1388,13 +1388,13 @@
         <v>0.0001226032570462588</v>
       </c>
       <c r="H27">
-        <v>0.002206555454971252</v>
+        <v>0.002206688854128194</v>
       </c>
       <c r="I27">
-        <v>1.194917783954835e-06</v>
+        <v>1.195076167861143e-06</v>
       </c>
       <c r="J27">
-        <v>43.20672268907563</v>
+        <v>43.23529411764706</v>
       </c>
     </row>
     <row r="28">
@@ -1426,13 +1426,13 @@
         <v>0.0001361772859712441</v>
       </c>
       <c r="H28">
-        <v>0.002217899432307836</v>
+        <v>0.002218033525381132</v>
       </c>
       <c r="I28">
-        <v>1.209189301559305e-06</v>
+        <v>1.209349514761094e-06</v>
       </c>
       <c r="J28">
-        <v>46.89483065953655</v>
+        <v>46.78431372549019</v>
       </c>
     </row>
     <row r="29">
@@ -1464,13 +1464,13 @@
         <v>7.966094782796736e-05</v>
       </c>
       <c r="H29">
-        <v>0.002127350653551527</v>
+        <v>0.002117012556423037</v>
       </c>
       <c r="I29">
-        <v>1.116460359284764e-06</v>
+        <v>1.105869571350198e-06</v>
       </c>
       <c r="J29">
-        <v>46.91477272727273</v>
+        <v>46.17613636363637</v>
       </c>
     </row>
     <row r="30">
@@ -1502,13 +1502,13 @@
         <v>9.065642959047324e-05</v>
       </c>
       <c r="H30">
-        <v>0.002155353803705452</v>
+        <v>0.002165384221348964</v>
       </c>
       <c r="I30">
-        <v>1.145445755003599e-06</v>
+        <v>1.155934777263872e-06</v>
       </c>
       <c r="J30">
-        <v>39.53409090909091</v>
+        <v>38.85606060606061</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         <v>5.942351211344674e-05</v>
       </c>
       <c r="H31">
-        <v>0.002288720131388895</v>
+        <v>0.002288744012626416</v>
       </c>
       <c r="I31">
-        <v>1.288585067669402e-06</v>
+        <v>1.288628850425625e-06</v>
       </c>
       <c r="J31">
-        <v>46.52462121212121</v>
+        <v>46.61742424242424</v>
       </c>
     </row>
     <row r="32">
@@ -1578,13 +1578,13 @@
         <v>0.0005241363279281124</v>
       </c>
       <c r="H32">
-        <v>0.001778063034612895</v>
+        <v>0.001799166747880324</v>
       </c>
       <c r="I32">
-        <v>7.87736333927694e-07</v>
+        <v>8.061070809047354e-07</v>
       </c>
       <c r="J32">
-        <v>40.08467741935484</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="33">
@@ -1616,13 +1616,13 @@
         <v>0.001585195453403422</v>
       </c>
       <c r="H33">
-        <v>0.001821965221753885</v>
+        <v>0.001821855113261605</v>
       </c>
       <c r="I33">
-        <v>8.279752884437662e-07</v>
+        <v>8.278914595452634e-07</v>
       </c>
       <c r="J33">
-        <v>36.03870967741936</v>
+        <v>36.61935483870968</v>
       </c>
     </row>
     <row r="34">
@@ -1657,10 +1657,10 @@
         <v>0.002175035313752179</v>
       </c>
       <c r="I34">
-        <v>1.173755720772446e-06</v>
+        <v>1.173772354419112e-06</v>
       </c>
       <c r="J34">
-        <v>46.85977011494253</v>
+        <v>46.81149425287357</v>
       </c>
     </row>
     <row r="35">
@@ -1692,13 +1692,13 @@
         <v>0.0001524904214559388</v>
       </c>
       <c r="H35">
-        <v>0.002002561075818689</v>
+        <v>0.002002682200906442</v>
       </c>
       <c r="I35">
-        <v>9.983687837930168e-07</v>
+        <v>9.985022948653021e-07</v>
       </c>
       <c r="J35">
-        <v>39.72413793103448</v>
+        <v>39.70114942528735</v>
       </c>
     </row>
     <row r="36">
@@ -1733,10 +1733,10 @@
         <v>0.002164965294794393</v>
       </c>
       <c r="I36">
-        <v>1.16312589977718e-06</v>
+        <v>1.163142456413079e-06</v>
       </c>
       <c r="J36">
-        <v>48.68275862068965</v>
+        <v>48.45747126436782</v>
       </c>
     </row>
     <row r="37">
@@ -1768,13 +1768,13 @@
         <v>0.0006371902937420178</v>
       </c>
       <c r="H37">
-        <v>0.002148379345741657</v>
+        <v>0.002152144962355506</v>
       </c>
       <c r="I37">
-        <v>1.145723284026481e-06</v>
+        <v>1.149679267456074e-06</v>
       </c>
       <c r="J37">
-        <v>39.43908045977012</v>
+        <v>39.96551724137931</v>
       </c>
     </row>
     <row r="38">
@@ -1806,13 +1806,13 @@
         <v>0.001438212005108557</v>
       </c>
       <c r="H38">
-        <v>0.00190804458772608</v>
+        <v>0.00190792928408892</v>
       </c>
       <c r="I38">
-        <v>9.08269990774887e-07</v>
+        <v>9.081772677072198e-07</v>
       </c>
       <c r="J38">
-        <v>36.29425287356322</v>
+        <v>36.14252873563218</v>
       </c>
     </row>
     <row r="39">
@@ -1844,13 +1844,13 @@
         <v>0.0002386646264568463</v>
       </c>
       <c r="H39">
-        <v>0.002047631554967115</v>
+        <v>0.00204750777865357</v>
       </c>
       <c r="I39">
-        <v>1.045456892223927e-06</v>
+        <v>1.045348841093777e-06</v>
       </c>
       <c r="J39">
-        <v>45.21428571428572</v>
+        <v>45.32758620689656</v>
       </c>
     </row>
     <row r="40">
@@ -1882,13 +1882,13 @@
         <v>0.0001028406787075049</v>
       </c>
       <c r="H40">
-        <v>0.00246529085830976</v>
+        <v>0.002469295555044348</v>
       </c>
       <c r="I40">
-        <v>1.508773854457284e-06</v>
+        <v>1.513612734027383e-06</v>
       </c>
       <c r="J40">
-        <v>44.89153439153439</v>
+        <v>44.9973544973545</v>
       </c>
     </row>
     <row r="41">
@@ -1920,13 +1920,13 @@
         <v>0.0001839517577762036</v>
       </c>
       <c r="H41">
-        <v>0.001412462023075059</v>
+        <v>0.001412547590532688</v>
       </c>
       <c r="I41">
-        <v>5.11264362105353e-07</v>
+        <v>5.113353810061396e-07</v>
       </c>
       <c r="J41">
-        <v>45.69538461538462</v>
+        <v>46.10461538461539</v>
       </c>
     </row>
     <row r="42">
@@ -1958,13 +1958,13 @@
         <v>0.0001906984510884933</v>
       </c>
       <c r="H42">
-        <v>0.001841876467443104</v>
+        <v>0.001841987799434608</v>
       </c>
       <c r="I42">
-        <v>8.573321504094809e-07</v>
+        <v>8.574476314613904e-07</v>
       </c>
       <c r="J42">
-        <v>40.41846153846154</v>
+        <v>40.64</v>
       </c>
     </row>
     <row r="43">
@@ -1996,13 +1996,13 @@
         <v>8.773120000000007e-05</v>
       </c>
       <c r="H43">
-        <v>0.002372290709854162</v>
+        <v>0.002372147360364171</v>
       </c>
       <c r="I43">
-        <v>1.412311441142919e-06</v>
+        <v>1.412162244063551e-06</v>
       </c>
       <c r="J43">
-        <v>47.73666666666666</v>
+        <v>47.78</v>
       </c>
     </row>
     <row r="44">
@@ -2037,10 +2037,10 @@
         <v>0.002191235059760956</v>
       </c>
       <c r="I44">
-        <v>1.208571176855514e-06</v>
+        <v>1.208588159625896e-06</v>
       </c>
       <c r="J44">
-        <v>38.68666666666667</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="45">
@@ -2072,13 +2072,13 @@
         <v>0.0002985727999999997</v>
       </c>
       <c r="H45">
-        <v>0.002158592082477548</v>
+        <v>0.002158722487363821</v>
       </c>
       <c r="I45">
-        <v>1.173525433919326e-06</v>
+        <v>1.173681142958595e-06</v>
       </c>
       <c r="J45">
-        <v>40.06</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="46">
@@ -2110,13 +2110,13 @@
         <v>7.233796296296288e-05</v>
       </c>
       <c r="H46">
-        <v>0.002197470664631428</v>
+        <v>0.002202506215621417</v>
       </c>
       <c r="I46">
-        <v>1.219837644827371e-06</v>
+        <v>1.225342395813946e-06</v>
       </c>
       <c r="J46">
-        <v>46.10869565217391</v>
+        <v>46.71739130434783</v>
       </c>
     </row>
     <row r="47">
@@ -2148,13 +2148,13 @@
         <v>0.001817098178341385</v>
       </c>
       <c r="H47">
-        <v>0.001932454650535023</v>
+        <v>0.0019322213327384</v>
       </c>
       <c r="I47">
-        <v>9.484028810020944e-07</v>
+        <v>9.481939609981744e-07</v>
       </c>
       <c r="J47">
-        <v>34.17391304347826</v>
+        <v>33.79710144927536</v>
       </c>
     </row>
     <row r="48">
@@ -2186,13 +2186,13 @@
         <v>0.0004678379126409015</v>
       </c>
       <c r="H48">
-        <v>0.001534071517288212</v>
+        <v>0.001534350896548326</v>
       </c>
       <c r="I48">
-        <v>6.045274495818613e-07</v>
+        <v>6.047535354785937e-07</v>
       </c>
       <c r="J48">
-        <v>42.04710144927536</v>
+        <v>43.1231884057971</v>
       </c>
     </row>
     <row r="49">
@@ -2224,13 +2224,13 @@
         <v>0.001353519294316962</v>
       </c>
       <c r="H49">
-        <v>0.001796486637029564</v>
+        <v>0.001810389903857523</v>
       </c>
       <c r="I49">
-        <v>8.223768611658616e-07</v>
+        <v>8.348656209998565e-07</v>
       </c>
       <c r="J49">
-        <v>37.43115942028985</v>
+        <v>37.77536231884058</v>
       </c>
     </row>
     <row r="50">
@@ -2262,13 +2262,13 @@
         <v>0.002571350052209914</v>
       </c>
       <c r="H50">
-        <v>0.001819228065414817</v>
+        <v>0.001819118128983501</v>
       </c>
       <c r="I50">
-        <v>8.462440342294354e-07</v>
+        <v>8.46158347546588e-07</v>
       </c>
       <c r="J50">
-        <v>36.62845849802372</v>
+        <v>36.45454545454545</v>
       </c>
     </row>
     <row r="51">
@@ -2303,10 +2303,10 @@
         <v>0.00156160095744436</v>
       </c>
       <c r="I51">
-        <v>6.342119047490963e-07</v>
+        <v>6.342241938529722e-07</v>
       </c>
       <c r="J51">
-        <v>29.62857142857143</v>
+        <v>29.63333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -2338,13 +2338,13 @@
         <v>0.01218319527357428</v>
       </c>
       <c r="H52">
-        <v>0.0009635989702434885</v>
+        <v>0.0009577882856452559</v>
       </c>
       <c r="I52">
-        <v>2.495738943795899e-07</v>
+        <v>2.467071873491694e-07</v>
       </c>
       <c r="J52">
-        <v>20.19047619047619</v>
+        <v>19.33333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -2376,13 +2376,13 @@
         <v>0.001736842105263158</v>
       </c>
       <c r="H53">
-        <v>0.001751841993964429</v>
+        <v>0.001751736155274605</v>
       </c>
       <c r="I53">
-        <v>7.977558867141116e-07</v>
+        <v>7.97675678641538e-07</v>
       </c>
       <c r="J53">
-        <v>34.91578947368421</v>
+        <v>33.96842105263158</v>
       </c>
     </row>
     <row r="54">
@@ -2414,13 +2414,13 @@
         <v>0.0002570148620338241</v>
       </c>
       <c r="H54">
-        <v>0.002445551536228039</v>
+        <v>0.00246316990503037</v>
       </c>
       <c r="I54">
-        <v>1.55291917655146e-06</v>
+        <v>1.574999387868835e-06</v>
       </c>
       <c r="J54">
-        <v>45.94771241830065</v>
+        <v>46.05882352941177</v>
       </c>
     </row>
     <row r="55">
@@ -2452,13 +2452,13 @@
         <v>0.0002570148620338241</v>
       </c>
       <c r="H55">
-        <v>0.002378469689043262</v>
+        <v>0.002378325800979799</v>
       </c>
       <c r="I55">
-        <v>1.47034743242217e-06</v>
+        <v>1.470191759247565e-06</v>
       </c>
       <c r="J55">
-        <v>50.55555555555556</v>
+        <v>50.01307189542484</v>
       </c>
     </row>
     <row r="56">
@@ -2490,13 +2490,13 @@
         <v>0.0001714677640603566</v>
       </c>
       <c r="H56">
-        <v>0.002270402622277511</v>
+        <v>0.002257628727683851</v>
       </c>
       <c r="I56">
-        <v>1.34206882140855e-06</v>
+        <v>1.327310648317844e-06</v>
       </c>
       <c r="J56">
-        <v>42.3202614379085</v>
+        <v>41.52287581699346</v>
       </c>
     </row>
     <row r="57">
@@ -2528,13 +2528,13 @@
         <v>0.0003103305473720239</v>
       </c>
       <c r="H57">
-        <v>0.002051043860989048</v>
+        <v>0.002037845576689427</v>
       </c>
       <c r="I57">
-        <v>1.107998997902904e-06</v>
+        <v>1.094095586545098e-06</v>
       </c>
       <c r="J57">
-        <v>38.58823529411764</v>
+        <v>38.375</v>
       </c>
     </row>
     <row r="58">
@@ -2566,13 +2566,13 @@
         <v>0.001932436108410338</v>
       </c>
       <c r="H58">
-        <v>0.001992994322985868</v>
+        <v>0.002020868369461195</v>
       </c>
       <c r="I58">
-        <v>1.093105636026512e-06</v>
+        <v>1.123255436202159e-06</v>
       </c>
       <c r="J58">
-        <v>36.46153846153846</v>
+        <v>37.2051282051282</v>
       </c>
     </row>
     <row r="59">
@@ -2607,7 +2607,7 @@
         <v>0.001706774963641852</v>
       </c>
       <c r="I59">
-        <v>8.199701034514694e-07</v>
+        <v>8.199845340516533e-07</v>
       </c>
       <c r="J59">
         <v>30.93939393939394</v>
@@ -2642,13 +2642,13 @@
         <v>0.0005787037037037031</v>
       </c>
       <c r="H60">
-        <v>0.002390080114826369</v>
+        <v>0.002389935725282792</v>
       </c>
       <c r="I60">
-        <v>1.585401473143425e-06</v>
+        <v>1.585233532143761e-06</v>
       </c>
       <c r="J60">
-        <v>49.86363636363637</v>
+        <v>49.28787878787879</v>
       </c>
     </row>
     <row r="61">
@@ -2683,10 +2683,10 @@
         <v>0.001762865453665672</v>
       </c>
       <c r="I61">
-        <v>8.897193238013442e-07</v>
+        <v>8.897344579458557e-07</v>
       </c>
       <c r="J61">
-        <v>39.56363636363636</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="62">
@@ -2721,7 +2721,7 @@
         <v>0.001788087471306029</v>
       </c>
       <c r="I62">
-        <v>9.356356876713417e-07</v>
+        <v>9.356513226178364e-07</v>
       </c>
       <c r="J62">
         <v>34.91111111111111</v>
@@ -2756,13 +2756,13 @@
         <v>0.001813333333333333</v>
       </c>
       <c r="H63">
-        <v>0.001682668115854517</v>
+        <v>0.001710846768512368</v>
       </c>
       <c r="I63">
-        <v>8.309810697150126e-07</v>
+        <v>8.58362985936752e-07</v>
       </c>
       <c r="J63">
-        <v>34.06666666666667</v>
+        <v>34.53333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -2794,13 +2794,13 @@
         <v>0.0009999999999999994</v>
       </c>
       <c r="H64">
-        <v>0.002151880042420093</v>
+        <v>0.002139798370316674</v>
       </c>
       <c r="I64">
-        <v>1.344415458736443e-06</v>
+        <v>1.329672862254911e-06</v>
       </c>
       <c r="J64">
-        <v>40.4</v>
+        <v>40.24444444444445</v>
       </c>
     </row>
     <row r="65">
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>136.6888888888889</v>
+        <v>137.9555555555555</v>
       </c>
     </row>
     <row r="66">
@@ -2870,10 +2870,10 @@
         <v>0.001371742112482852</v>
       </c>
       <c r="H66">
-        <v>0.001982808945789802</v>
+        <v>0.002006172839506173</v>
       </c>
       <c r="I66">
-        <v>1.17789834051182e-06</v>
+        <v>1.205249730628655e-06</v>
       </c>
       <c r="J66">
         <v>36.66666666666666</v>
@@ -2908,13 +2908,13 @@
         <v>0.001371742112482852</v>
       </c>
       <c r="H67">
-        <v>0.001801203485680935</v>
+        <v>0.001767768251284735</v>
       </c>
       <c r="I67">
-        <v>9.761224157646227e-07</v>
+        <v>9.410531999469654e-07</v>
       </c>
       <c r="J67">
-        <v>33.52777777777778</v>
+        <v>33.41666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -2946,13 +2946,13 @@
         <v>0.002578367118833511</v>
       </c>
       <c r="H68">
-        <v>0.002369493277485786</v>
+        <v>0.002369350140281638</v>
       </c>
       <c r="I68">
-        <v>1.670606767129796e-06</v>
+        <v>1.670429690484368e-06</v>
       </c>
       <c r="J68">
-        <v>47.55555555555556</v>
+        <v>47.22222222222222</v>
       </c>
     </row>
     <row r="69">
@@ -2984,13 +2984,13 @@
         <v>0.001371742112482852</v>
       </c>
       <c r="H69">
-        <v>0.001936423556575786</v>
+        <v>0.001922999476460875</v>
       </c>
       <c r="I69">
-        <v>1.124560678103392e-06</v>
+        <v>1.109372242969292e-06</v>
       </c>
       <c r="J69">
-        <v>37.69444444444444</v>
+        <v>37.47222222222222</v>
       </c>
     </row>
     <row r="70">
@@ -3022,13 +3022,13 @@
         <v>0.001371742112482852</v>
       </c>
       <c r="H70">
-        <v>0.001476229620495958</v>
+        <v>0.001476411668790507</v>
       </c>
       <c r="I70">
-        <v>6.623079995495479e-07</v>
+        <v>6.624800275948108e-07</v>
       </c>
       <c r="J70">
-        <v>125.25</v>
+        <v>125.7777777777778</v>
       </c>
     </row>
     <row r="71">
@@ -3060,13 +3060,13 @@
         <v>0.001953125</v>
       </c>
       <c r="H71">
-        <v>0.002194117951638792</v>
+        <v>0.002179015861509519</v>
       </c>
       <c r="I71">
-        <v>1.489013923369036e-06</v>
+        <v>1.468991143093428e-06</v>
       </c>
       <c r="J71">
-        <v>41.39285714285715</v>
+        <v>41.28571428571428</v>
       </c>
     </row>
     <row r="72">
@@ -3101,7 +3101,7 @@
         <v>0.0001380845940744448</v>
       </c>
       <c r="I72">
-        <v>9.213593681049785e-09</v>
+        <v>9.214863808085525e-09</v>
       </c>
       <c r="J72">
         <v>10.67857142857143</v>
@@ -3139,7 +3139,7 @@
         <v>0.001862566720416663</v>
       </c>
       <c r="I73">
-        <v>1.13246479603143e-06</v>
+        <v>1.132482562783378e-06</v>
       </c>
       <c r="J73">
         <v>34.19047619047619</v>
@@ -3177,7 +3177,7 @@
         <v>0.001948940968027704</v>
       </c>
       <c r="I74">
-        <v>1.320510152950516e-06</v>
+        <v>1.320529673146962e-06</v>
       </c>
       <c r="J74">
         <v>37.66666666666666</v>
@@ -3215,10 +3215,10 @@
         <v>0.002506991811029959</v>
       </c>
       <c r="I75">
-        <v>2.164961955104055e-06</v>
+        <v>2.164987064624273e-06</v>
       </c>
       <c r="J75">
-        <v>43.8</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="76">
@@ -3250,13 +3250,13 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H76">
-        <v>0.001928923789388906</v>
+        <v>0.001928807280341467</v>
       </c>
       <c r="I76">
-        <v>1.29407692279739e-06</v>
+        <v>1.293943169884123e-06</v>
       </c>
       <c r="J76">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="77">
@@ -3288,13 +3288,13 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H77">
-        <v>0.00247927231747565</v>
+        <v>0.002479122648153738</v>
       </c>
       <c r="I77">
-        <v>2.118116185030209e-06</v>
+        <v>2.117889465590442e-06</v>
       </c>
       <c r="J77">
-        <v>45.33333333333334</v>
+        <v>44.26666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -3326,13 +3326,13 @@
         <v>0.004629629629629625</v>
       </c>
       <c r="H78">
-        <v>0.002396343059666929</v>
+        <v>0.002376349283067505</v>
       </c>
       <c r="I78">
-        <v>1.981024932935802e-06</v>
+        <v>1.948682745899657e-06</v>
       </c>
       <c r="J78">
-        <v>47.73333333333333</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="79">
@@ -3367,10 +3367,10 @@
         <v>0.002318700561560292</v>
       </c>
       <c r="I79">
-        <v>1.856829011177356e-06</v>
+        <v>1.856852234810706e-06</v>
       </c>
       <c r="J79">
-        <v>44.46666666666667</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="80">
@@ -3402,13 +3402,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="H80">
-        <v>0.002342995169082126</v>
+        <v>0.002367149758454106</v>
       </c>
       <c r="I80">
-        <v>2.082916075202142e-06</v>
+        <v>2.12537993366407e-06</v>
       </c>
       <c r="J80">
-        <v>44.1</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="81">
@@ -3443,7 +3443,7 @@
         <v>0.002293854883496318</v>
       </c>
       <c r="I81">
-        <v>1.997899582880145e-06</v>
+        <v>1.997924198720242e-06</v>
       </c>
       <c r="J81">
         <v>40.4</v>
@@ -3478,13 +3478,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="H82">
-        <v>0.0007731336071514858</v>
+        <v>0.000749018423437028</v>
       </c>
       <c r="I82">
-        <v>2.422855872043911e-07</v>
+        <v>2.281133821282865e-07</v>
       </c>
       <c r="J82">
-        <v>14</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="83">
@@ -3519,7 +3519,7 @@
         <v>0.0007124743388479653</v>
       </c>
       <c r="I83">
-        <v>2.074294459221705e-07</v>
+        <v>2.074370916344272e-07</v>
       </c>
       <c r="J83">
         <v>15.4</v>
@@ -3554,13 +3554,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="H84">
-        <v>0.002199130014499758</v>
+        <v>0.002198997160635535</v>
       </c>
       <c r="I84">
-        <v>1.839015027405144e-06</v>
+        <v>1.838820406780564e-06</v>
       </c>
       <c r="J84">
-        <v>46</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="85">
@@ -3595,7 +3595,7 @@
         <v>0.001424432641236118</v>
       </c>
       <c r="I85">
-        <v>7.865587564416216e-07</v>
+        <v>7.865740423284391e-07</v>
       </c>
       <c r="J85">
         <v>26</v>
@@ -3633,7 +3633,7 @@
         <v>0.001579540424161938</v>
       </c>
       <c r="I86">
-        <v>1.115137001807307e-06</v>
+        <v>1.115155835564106e-06</v>
       </c>
       <c r="J86">
         <v>28.16666666666667</v>
@@ -3671,7 +3671,7 @@
         <v>0.0002414146900838916</v>
       </c>
       <c r="I87">
-        <v>4.200242083540416e-08</v>
+        <v>4.200587506461502e-08</v>
       </c>
       <c r="J87">
         <v>4.666666666666667</v>
@@ -3709,7 +3709,7 @@
         <v>0.002416918429003021</v>
       </c>
       <c r="I88">
-        <v>3.341625899683041e-06</v>
+        <v>3.341660481630953e-06</v>
       </c>
       <c r="J88">
         <v>54</v>
@@ -3747,7 +3747,7 @@
         <v>0.001731706334823406</v>
       </c>
       <c r="I89">
-        <v>1.735038709860909e-06</v>
+        <v>1.735063487601668e-06</v>
       </c>
       <c r="J89">
         <v>41</v>
@@ -3782,13 +3782,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H90">
-        <v>0.00249657727309334</v>
+        <v>0.00249642648627972</v>
       </c>
       <c r="I90">
-        <v>3.562247846557012e-06</v>
+        <v>3.561859288791891e-06</v>
       </c>
       <c r="J90">
-        <v>51.33333333333334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
@@ -3820,13 +3820,13 @@
         <v>0.037037037037037</v>
       </c>
       <c r="H91">
-        <v>0.002133140143282621</v>
+        <v>0.002092892216050873</v>
       </c>
       <c r="I91">
-        <v>2.612975327185079e-06</v>
+        <v>2.516906866265311e-06</v>
       </c>
       <c r="J91">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
@@ -3861,7 +3861,7 @@
         <v>0.001730243038789635</v>
       </c>
       <c r="I92">
-        <v>1.732166010308784e-06</v>
+        <v>1.732190767112292e-06</v>
       </c>
       <c r="J92">
         <v>29.33333333333333</v>
@@ -3899,7 +3899,7 @@
         <v>0.002536691429606813</v>
       </c>
       <c r="I93">
-        <v>6.586492186748413e-06</v>
+        <v>6.586546630288895e-06</v>
       </c>
       <c r="J93">
         <v>58</v>
@@ -3937,7 +3937,7 @@
         <v>0.0001207948299812768</v>
       </c>
       <c r="I94">
-        <v>2.181466607914635e-08</v>
+        <v>2.181725862869314e-08</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -3972,13 +3972,13 @@
         <v>0.125</v>
       </c>
       <c r="H95">
-        <v>0.002597559502235109</v>
+        <v>0.002536997885835095</v>
       </c>
       <c r="I95">
-        <v>6.902643927254558e-06</v>
+        <v>6.588119825991005e-06</v>
       </c>
       <c r="J95">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96">
@@ -4013,7 +4013,7 @@
         <v>0.0002414146900838916</v>
       </c>
       <c r="I96">
-        <v>7.271714001782314e-08</v>
+        <v>7.272232136163945e-08</v>
       </c>
       <c r="J96">
         <v>4</v>
@@ -4048,13 +4048,13 @@
         <v>0.125</v>
       </c>
       <c r="H97">
-        <v>0.002595364558184452</v>
+        <v>0.002595207918401835</v>
       </c>
       <c r="I97">
-        <v>6.891114496474753e-06</v>
+        <v>6.890347779048968e-06</v>
       </c>
       <c r="J97">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
@@ -4089,7 +4089,7 @@
         <v>0.002353935296957991</v>
       </c>
       <c r="I98">
-        <v>5.681771730106481e-06</v>
+        <v>5.681822251257827e-06</v>
       </c>
       <c r="J98">
         <v>40</v>
@@ -4127,7 +4127,7 @@
         <v>0.001569290197971994</v>
       </c>
       <c r="I99">
-        <v>2.556511957345497e-06</v>
+        <v>2.556545638113061e-06</v>
       </c>
       <c r="J99">
         <v>27</v>
@@ -4165,7 +4165,7 @@
         <v>0.001689902830587241</v>
       </c>
       <c r="I100">
-        <v>2.956824188833422e-06</v>
+        <v>2.956860458240136e-06</v>
       </c>
       <c r="J100">
         <v>33</v>
